--- a/medicine/Sexualité et sexologie/Kureopatora/Kureopatora.xlsx
+++ b/medicine/Sexualité et sexologie/Kureopatora/Kureopatora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kureopatora (クレオパトラ, littéralement « Cléopâtre »?) est un anime japonais réalisé par Osamu Tezuka et Eiichi Yamamoto, sorti en 1970. Le film est connu pour appartenir à la trilogie de films pour adultes (érotiques) « Animerama » produite par Mushi Production dans les années 1970.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois hommes s'embarquent dans une machine à remonter le temps, jusqu'à l'époque de Cléopâtre et de l'Égypte ancienne. Mais bien loin de l'idée qu'il s'en faisait, ils débarquent dans un monde où les artifices et l'érotisme règnent.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Kureopatora
 Titre japonais : クレオパトラ
@@ -565,7 +581,7 @@
 Nobuo Tsukamoto : Ionius
 Susumu Abe : Cabagonis
 Tsubame Yanagiya : Rupa
-Yoshiro Kato : Chef Tarabahha[1]</t>
+Yoshiro Kato : Chef Tarabahha</t>
         </is>
       </c>
     </row>
@@ -593,11 +609,13 @@
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>À sa sortie aux États-Unis, le film a été classé X à la suite d'un oubli d'enregistrement au MPAA, alors qu'il ne mérite pas une telle catégorie (la critique le qualifie de « film pour enfant avec des seins nus »[2]). Le film a de plus été largement censuré[3].
-Le film contient de nombreuses références aux anime de l'époque, tel que Kamui Gaiden ou Gegege no Kitaro[3].
-Second film des Animerama, ce film se veut plus érotique que son prédécesseur (1001 nights)[4].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>À sa sortie aux États-Unis, le film a été classé X à la suite d'un oubli d'enregistrement au MPAA, alors qu'il ne mérite pas une telle catégorie (la critique le qualifie de « film pour enfant avec des seins nus »). Le film a de plus été largement censuré.
+Le film contient de nombreuses références aux anime de l'époque, tel que Kamui Gaiden ou Gegege no Kitaro.
+Second film des Animerama, ce film se veut plus érotique que son prédécesseur (1001 nights).</t>
         </is>
       </c>
     </row>
